--- a/CBS/Excel/SMSTEST.xlsx
+++ b/CBS/Excel/SMSTEST.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="1288">
   <si>
     <t>Result</t>
   </si>
@@ -5073,6 +5073,15 @@
     <t>Annual Income To 19</t>
   </si>
   <si>
+    <t>Eating 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoking 21 </t>
+  </si>
+  <si>
+    <t>Drinking 22</t>
+  </si>
+  <si>
     <t>Siva</t>
   </si>
   <si>
@@ -5096,10 +5105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -5287,7 +5296,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5301,53 +5363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5369,24 +5385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5400,8 +5401,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5409,6 +5411,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5519,7 +5528,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5537,43 +5630,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5591,13 +5660,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5609,13 +5690,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5627,73 +5702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5961,6 +5970,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -5971,15 +6004,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6000,21 +6024,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -6025,6 +6034,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6048,160 +6066,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10402,10 +10411,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -10413,7 +10422,7 @@
     <col min="1" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="43.2" spans="1:20">
+    <row r="1" s="1" customFormat="1" ht="43.2" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>1072</v>
       </c>
@@ -10474,8 +10483,17 @@
       <c r="T1" s="1" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="100.8" spans="2:19">
+      <c r="U1" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="100.8" spans="2:23">
       <c r="B2" s="124" t="s">
         <v>1265</v>
       </c>
@@ -10516,18 +10534,27 @@
         <v>915</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>1022</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>902</v>
       </c>
     </row>
@@ -10551,7 +10578,7 @@
         <v>891</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="18:18">
@@ -10561,12 +10588,12 @@
     </row>
     <row r="6" ht="28.8" spans="18:18">
       <c r="R6" s="2" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="18:18">
       <c r="R7" s="2" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
     </row>
   </sheetData>

--- a/CBS/Excel/SMSTEST.xlsx
+++ b/CBS/Excel/SMSTEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="23040" windowHeight="9335" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="1358">
   <si>
     <t>Result</t>
   </si>
@@ -3617,33 +3617,36 @@
     <t>Self</t>
   </si>
   <si>
+    <t>Avinash</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Widow</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>agarwalmatrimony</t>
+  </si>
+  <si>
     <t>Agarwal</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Widow</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>agarwalmatrimony</t>
-  </si>
-  <si>
     <t>Unmarried</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Parents</t>
   </si>
   <si>
@@ -4592,7 +4595,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Orthodox Joint Family with Rich status</t>
+    <t>I live with my parents,both post graduates who are presently retired.My sister a B.A, M.B.A is a homemaker &amp; married to Wing Commander who is presently posted in Hyderabad.</t>
   </si>
   <si>
     <t>IAS</t>
@@ -5314,8 +5317,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -5505,20 +5508,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -5526,7 +5515,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5540,15 +5529,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -5565,6 +5545,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -5572,14 +5574,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -5587,7 +5597,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -5603,32 +5613,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5737,7 +5740,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5749,13 +5842,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5773,145 +5914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6178,6 +6181,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6188,6 +6206,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -6217,36 +6259,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -6254,15 +6266,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6278,10 +6281,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6290,46 +6293,46 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -6338,88 +6341,88 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="47" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="29" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7123,8 +7126,8 @@
   <sheetPr/>
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
@@ -7231,13 +7234,13 @@
         <v>796</v>
       </c>
       <c r="J2">
-        <v>8098882244</v>
+        <v>7550022901</v>
       </c>
       <c r="K2" t="s">
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>529</v>
+        <v>576</v>
       </c>
       <c r="M2" t="s">
         <v>797</v>
@@ -7249,18 +7252,18 @@
         <v>798</v>
       </c>
       <c r="U2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>792</v>
       </c>
       <c r="C3" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="D3" t="s">
         <v>794</v>
@@ -7275,13 +7278,13 @@
         <v>1988</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="I3" s="50" t="s">
         <v>796</v>
       </c>
       <c r="J3">
-        <v>8098882244</v>
+        <v>7550022901</v>
       </c>
       <c r="K3" t="s">
         <v>5</v>
@@ -7293,10 +7296,10 @@
         <v>797</v>
       </c>
       <c r="T3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="U3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -7304,13 +7307,13 @@
         <v>757</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D4" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -7325,10 +7328,10 @@
         <v>795</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J4">
-        <v>8098882244</v>
+        <v>7550022901</v>
       </c>
       <c r="K4" t="s">
         <v>5</v>
@@ -7340,7 +7343,7 @@
         <v>797</v>
       </c>
       <c r="U4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -7348,10 +7351,10 @@
         <v>760</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C5" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D5" t="s">
         <v>794</v>
@@ -7366,10 +7369,10 @@
         <v>1992</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J5">
-        <v>8098882244</v>
+        <v>7550022901</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
@@ -7383,16 +7386,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C6" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -7404,13 +7407,13 @@
         <v>1994</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="I6" s="50" t="s">
         <v>796</v>
       </c>
       <c r="J6">
-        <v>8098882244</v>
+        <v>7550022901</v>
       </c>
       <c r="K6" t="s">
         <v>5</v>
@@ -7424,13 +7427,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C7" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D7" t="s">
         <v>794</v>
@@ -7445,13 +7448,13 @@
         <v>1996</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="J7">
-        <v>8098882244</v>
+        <v>7550022901</v>
       </c>
       <c r="K7" t="s">
         <v>5</v>
@@ -7505,7 +7508,7 @@
     </row>
     <row r="13" spans="12:13">
       <c r="L13" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M13" t="s">
         <v>797</v>
@@ -7622,530 +7625,530 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="62" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C2" s="62" t="s">
+        <v>820</v>
+      </c>
+      <c r="D2" s="62" t="s">
         <v>819</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>818</v>
-      </c>
       <c r="E2" s="62" t="s">
+        <v>821</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>822</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>823</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>819</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>819</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>819</v>
+      </c>
+      <c r="K2" s="62" t="s">
         <v>820</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="L2" s="62" t="s">
         <v>821</v>
       </c>
-      <c r="G2" s="62" t="s">
-        <v>822</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>818</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>818</v>
-      </c>
-      <c r="J2" s="62" t="s">
-        <v>818</v>
-      </c>
-      <c r="K2" s="62" t="s">
+      <c r="M2" s="62" t="s">
         <v>819</v>
       </c>
-      <c r="L2" s="62" t="s">
-        <v>820</v>
-      </c>
-      <c r="M2" s="62" t="s">
-        <v>818</v>
-      </c>
       <c r="N2" s="64" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="62" t="s">
+        <v>824</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>824</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>824</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>824</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>824</v>
+      </c>
+      <c r="F3" s="62" t="s">
         <v>823</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>823</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>823</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>823</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>823</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>822</v>
-      </c>
       <c r="G3" s="62" t="s">
+        <v>825</v>
+      </c>
+      <c r="H3" s="62" t="s">
         <v>824</v>
       </c>
-      <c r="H3" s="62" t="s">
-        <v>823</v>
-      </c>
       <c r="I3" s="62" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="N3" s="64" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:14">
       <c r="A4" s="62" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E4" s="62" t="s">
+        <v>828</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>829</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>830</v>
+      </c>
+      <c r="H4" s="62" t="s">
         <v>827</v>
       </c>
-      <c r="F4" s="62" t="s">
-        <v>828</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>829</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>826</v>
-      </c>
       <c r="I4" s="62" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K4" s="62" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="L4" s="62" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N4" s="64" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:14">
       <c r="A5" s="62" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E5" s="62" t="s">
+        <v>835</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>826</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="H5" s="62" t="s">
         <v>834</v>
       </c>
-      <c r="F5" s="62" t="s">
-        <v>825</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>835</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>833</v>
-      </c>
       <c r="I5" s="62" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N5" s="64" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:14">
       <c r="A6" s="62" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E6" s="62" t="s">
+        <v>839</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>840</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>841</v>
+      </c>
+      <c r="H6" s="62" t="s">
         <v>838</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="I6" s="62" t="s">
+        <v>838</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>838</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>838</v>
+      </c>
+      <c r="L6" s="62" t="s">
         <v>839</v>
       </c>
-      <c r="G6" s="62" t="s">
-        <v>840</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>837</v>
-      </c>
-      <c r="I6" s="62" t="s">
-        <v>837</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>837</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>837</v>
-      </c>
-      <c r="L6" s="62" t="s">
+      <c r="M6" s="62" t="s">
+        <v>839</v>
+      </c>
+      <c r="N6" s="64" t="s">
         <v>838</v>
-      </c>
-      <c r="M6" s="62" t="s">
-        <v>838</v>
-      </c>
-      <c r="N6" s="64" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:14">
       <c r="A7" s="62" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E7" s="62" t="s">
+        <v>843</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>844</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>845</v>
+      </c>
+      <c r="H7" s="62" t="s">
         <v>842</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="I7" s="62" t="s">
+        <v>842</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>842</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>842</v>
+      </c>
+      <c r="L7" s="62" t="s">
         <v>843</v>
       </c>
-      <c r="G7" s="62" t="s">
-        <v>844</v>
-      </c>
-      <c r="H7" s="62" t="s">
-        <v>841</v>
-      </c>
-      <c r="I7" s="62" t="s">
-        <v>841</v>
-      </c>
-      <c r="J7" s="62" t="s">
-        <v>841</v>
-      </c>
-      <c r="K7" s="62" t="s">
-        <v>841</v>
-      </c>
-      <c r="L7" s="62" t="s">
+      <c r="M7" s="62" t="s">
+        <v>843</v>
+      </c>
+      <c r="N7" s="64" t="s">
         <v>842</v>
-      </c>
-      <c r="M7" s="62" t="s">
-        <v>842</v>
-      </c>
-      <c r="N7" s="64" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:14">
       <c r="A8" s="62" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E8" s="62" t="s">
+        <v>847</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>848</v>
+      </c>
+      <c r="G8" s="62" t="s">
         <v>846</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="H8" s="62" t="s">
+        <v>846</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>846</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>846</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>846</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>849</v>
+      </c>
+      <c r="M8" s="62" t="s">
         <v>847</v>
       </c>
-      <c r="G8" s="62" t="s">
-        <v>845</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>845</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>845</v>
-      </c>
-      <c r="J8" s="62" t="s">
-        <v>845</v>
-      </c>
-      <c r="K8" s="62" t="s">
-        <v>845</v>
-      </c>
-      <c r="L8" s="62" t="s">
-        <v>848</v>
-      </c>
-      <c r="M8" s="62" t="s">
+      <c r="N8" s="64" t="s">
         <v>846</v>
-      </c>
-      <c r="N8" s="64" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:14">
       <c r="A9" s="62" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E9" s="62" t="s">
+        <v>851</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>852</v>
+      </c>
+      <c r="G9" s="62" t="s">
         <v>850</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>851</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>849</v>
-      </c>
       <c r="H9" s="62" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="K9" s="62" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L9" s="62" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N9" s="62" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:14">
       <c r="A10" s="62" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C10" s="62" t="s">
+        <v>856</v>
+      </c>
+      <c r="D10" s="62" t="s">
         <v>855</v>
       </c>
-      <c r="D10" s="62" t="s">
-        <v>854</v>
-      </c>
       <c r="E10" s="62" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G10" s="62" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H10" s="62" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="I10" s="62" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K10" s="62" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="L10" s="62" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N10" s="62" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:14">
       <c r="A11" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E11" s="62" t="s">
+        <v>860</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>853</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>861</v>
+      </c>
+      <c r="H11" s="62" t="s">
         <v>859</v>
       </c>
-      <c r="F11" s="62" t="s">
-        <v>852</v>
-      </c>
-      <c r="G11" s="62" t="s">
+      <c r="I11" s="62" t="s">
+        <v>859</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>859</v>
+      </c>
+      <c r="K11" s="62" t="s">
         <v>860</v>
       </c>
-      <c r="H11" s="62" t="s">
-        <v>858</v>
-      </c>
-      <c r="I11" s="62" t="s">
-        <v>858</v>
-      </c>
-      <c r="J11" s="62" t="s">
-        <v>858</v>
-      </c>
-      <c r="K11" s="62" t="s">
+      <c r="L11" s="62" t="s">
+        <v>862</v>
+      </c>
+      <c r="M11" s="62" t="s">
+        <v>860</v>
+      </c>
+      <c r="N11" s="62" t="s">
         <v>859</v>
-      </c>
-      <c r="L11" s="62" t="s">
-        <v>861</v>
-      </c>
-      <c r="M11" s="62" t="s">
-        <v>859</v>
-      </c>
-      <c r="N11" s="62" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:14">
       <c r="A12" s="62" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E12" s="62" t="s">
+        <v>864</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>865</v>
+      </c>
+      <c r="G12" s="62" t="s">
         <v>863</v>
       </c>
-      <c r="F12" s="62" t="s">
-        <v>864</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>862</v>
-      </c>
       <c r="H12" s="62" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="I12" s="62" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K12" s="62" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="L12" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="M12" s="62" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N12" s="62" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.15" spans="1:14">
       <c r="A13" s="63" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F13" s="63" t="s">
+        <v>869</v>
+      </c>
+      <c r="G13" s="63" t="s">
         <v>868</v>
       </c>
-      <c r="G13" s="63" t="s">
-        <v>867</v>
-      </c>
       <c r="H13" s="63" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="I13" s="63" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="K13" s="63" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="L13" s="63" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="M13" s="63" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="N13" s="63" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -8194,475 +8197,475 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="43.2" spans="2:30">
       <c r="B1" s="6" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="2" ht="129.6" spans="2:29">
       <c r="B2" s="57" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D2" s="125" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E2" s="125" t="s">
         <v>201</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="J2" s="56" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="L2" s="58" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="M2" s="58" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="O2" s="58" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="P2" s="58" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="Q2" s="50" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="R2" s="50" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="T2" s="58" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="U2" s="57" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="V2" s="58" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="W2" s="58" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="X2" s="58" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="Y2" s="56" t="s">
         <v>191</v>
       </c>
       <c r="AA2" s="50" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AB2" s="50" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AC2" s="56" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" ht="216" spans="2:24">
       <c r="B3" s="57" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="I3" s="57" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="K3" s="56" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="L3" s="56" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="M3" s="57" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="N3" s="57" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="P3" s="57" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="Q3" s="57" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="R3" s="57" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="T3" s="57" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="U3" s="56" t="s">
         <v>796</v>
       </c>
       <c r="V3" s="57" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="W3" s="57" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="X3" s="57" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4" spans="2:24">
       <c r="B4" s="57" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H4" s="56" t="s">
         <v>503</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="J4" s="56" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="K4" s="56" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="L4" s="56" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="N4" s="57" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="P4" s="50" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="Q4" s="57" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="R4" s="57" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="T4" s="57" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="V4" s="57" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="W4" s="57" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="5" spans="2:24">
       <c r="B5" s="56" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="J5" s="56" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="K5" s="56" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="L5" s="56" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="M5" s="57" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="P5" s="50" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="T5" s="57" t="s">
         <v>796</v>
       </c>
       <c r="V5" s="57" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="W5" s="57" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="X5" s="57" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="6" spans="2:24">
       <c r="B6" s="56" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="K6" s="56" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="O6" s="57" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="P6" s="50" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="T6" s="57" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="V6" s="57" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="W6" s="57" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="X6" s="57" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="7" spans="8:22">
       <c r="H7" s="56" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="J7" s="56" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M7" s="57" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="P7" s="50" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="T7" s="57" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="V7" s="57" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8" spans="8:20">
       <c r="H8" s="56" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="K8" s="56" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="L8" s="56" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="M8" s="57" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="P8" s="50" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="T8" s="57" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="9" spans="8:16">
       <c r="H9" s="56" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="M9" s="57" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="P9" s="50" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="10" spans="8:16">
       <c r="H10" s="56" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="M10" s="57" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="P10" s="50" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="11" spans="8:16">
       <c r="H11" s="56" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="L11" s="56" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="P11" s="50" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="12" spans="16:16">
       <c r="P12" s="50" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="13" spans="16:16">
       <c r="P13" s="50" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -8677,7 +8680,7 @@
   <sheetPr/>
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
@@ -8693,85 +8696,85 @@
         <v>0</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M1" s="52" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="N1" s="52" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="O1" s="52" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="P1" s="52" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="Q1" s="52" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="R1" s="52" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="S1" s="52" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="T1" s="52" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U1" s="52" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="V1" s="52" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="W1" s="52" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="X1" s="52" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="Y1" s="52" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="Z1" s="52" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="AA1" s="52" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="AB1" s="52" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="2" s="53" customFormat="1" ht="55.2" spans="2:28">
@@ -8779,37 +8782,37 @@
         <v>792</v>
       </c>
       <c r="D2" s="126" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F2" s="126" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="L2" s="55" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="M2" s="55" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="N2" s="55" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="O2" s="55" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="Q2" s="55" t="s">
         <v>529</v>
@@ -8821,51 +8824,51 @@
         <v>617</v>
       </c>
       <c r="U2" s="55" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="V2" s="55" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="W2" s="55" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="X2" s="53" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Y2" s="55" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Z2" s="55" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="AA2" s="55" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="AB2" s="53" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="3" s="53" customFormat="1" ht="41.4" spans="2:27">
       <c r="B3" s="55" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="K3" s="55" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="L3" s="55" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="M3" s="55" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N3" s="55" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O3" s="55" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="Q3" s="55" t="s">
         <v>557</v>
@@ -8877,45 +8880,45 @@
         <v>628</v>
       </c>
       <c r="U3" s="55" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="V3" s="55" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="W3" s="55" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="X3" s="53" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Y3" s="55" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Z3" s="55" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA3" s="55" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="4" s="53" customFormat="1" ht="41.4" spans="2:27">
       <c r="B4" s="55" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="K4" s="55" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="L4" s="55" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N4" s="55" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O4" s="55" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="Q4" s="55" t="s">
         <v>576</v>
@@ -8924,45 +8927,45 @@
         <v>557</v>
       </c>
       <c r="U4" s="55" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="V4" s="55" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="W4" s="55" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="X4" s="55" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="Y4" s="55" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="Z4" s="55" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="AA4" s="55" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="5" s="53" customFormat="1" ht="27.6" spans="2:25">
       <c r="B5" s="55" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="K5" s="55" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="N5" s="55" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="O5" s="55" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="Q5" s="55" t="s">
         <v>577</v>
@@ -8971,27 +8974,27 @@
         <v>576</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="Y5" s="55" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="6" s="53" customFormat="1" ht="27.6" spans="2:24">
       <c r="B6" s="55" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="N6" s="55" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="Q6" s="55" t="s">
         <v>489</v>
@@ -9000,18 +9003,18 @@
         <v>577</v>
       </c>
       <c r="X6" s="55" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="7" s="53" customFormat="1" ht="27.6" spans="7:24">
       <c r="G7" s="55" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="N7" s="55" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="Q7" s="55" t="s">
         <v>576</v>
@@ -9020,53 +9023,53 @@
         <v>489</v>
       </c>
       <c r="X7" s="55" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="8" s="53" customFormat="1" ht="41.4" spans="14:15">
       <c r="N8" s="55" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="O8" s="55" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="9" s="53" customFormat="1" ht="27.6" spans="14:15">
       <c r="N9" s="55" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="O9" s="55" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="10" s="53" customFormat="1" ht="41.4" spans="14:14">
       <c r="N10" s="55" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="11" s="53" customFormat="1" ht="13.8" spans="15:15">
       <c r="O11" s="55" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="12" s="53" customFormat="1" ht="27.6" spans="15:15">
       <c r="O12" s="55" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="13" s="53" customFormat="1" ht="13.8" spans="15:15">
       <c r="O13" s="55" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="14" s="53" customFormat="1" ht="27.6" spans="15:15">
       <c r="O14" s="55" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="15" s="53" customFormat="1" ht="27.6" spans="15:15">
       <c r="O15" s="55" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="16" spans="18:18">
@@ -9084,8 +9087,8 @@
   <sheetPr/>
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5740740740741" defaultRowHeight="14.4"/>
@@ -9095,126 +9098,126 @@
   <sheetData>
     <row r="1" ht="28.8" spans="1:22">
       <c r="A1" s="7" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="2" ht="28.8" spans="2:22">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="2" ht="144" spans="2:22">
       <c r="B2" s="51" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="K2" s="127" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>178</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="R2" s="127" t="s">
         <v>195</v>
       </c>
       <c r="S2" s="127" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="T2" s="127" t="s">
         <v>196</v>
@@ -9223,92 +9226,92 @@
         <v>195</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="51" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="4" ht="24" spans="2:14">
       <c r="B4" s="51" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="5" ht="24" spans="2:12">
       <c r="B5" s="51" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="51" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G6" s="51" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="7" ht="24" spans="2:9">
       <c r="B7" s="51" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="F7" s="51" t="s">
         <v>175</v>
@@ -9317,37 +9320,37 @@
         <v>58</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="51" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="51" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="51" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="51" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="51" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="51" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
   </sheetData>
@@ -9376,84 +9379,84 @@
   <sheetData>
     <row r="1" s="47" customFormat="1" ht="28.8" spans="1:18">
       <c r="A1" s="47" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="O1" s="47" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="P1" s="47" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="Q1" s="47" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="2:18">
       <c r="B2" s="48" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="J2" s="48" t="s">
         <v>796</v>
@@ -9465,88 +9468,88 @@
         <v>190</v>
       </c>
       <c r="M2" s="48" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N2" s="48" t="s">
         <v>796</v>
       </c>
       <c r="O2" s="48" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="P2" s="49" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="Q2" s="50" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="R2" s="128" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="2:17">
       <c r="B3" s="48" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="J3" s="48" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="K3" s="48" t="s">
         <v>796</v>
       </c>
       <c r="L3" s="48" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="M3" s="48" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="N3" s="48" t="s">
         <v>796</v>
       </c>
       <c r="O3" s="48" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="Q3" s="50" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="4:17">
       <c r="D4" s="48" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="Q4" s="50" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="5" spans="6:6">
       <c r="F5" s="48" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="6" spans="6:6">
       <c r="F6" s="48" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="7" spans="6:6">
       <c r="F7" s="48" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="8" spans="6:6">
       <c r="F8" s="48" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
   </sheetData>
@@ -9576,13 +9579,13 @@
   <sheetData>
     <row r="6" spans="9:13">
       <c r="I6" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="K6" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="M6" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="7" spans="7:13">
@@ -9590,13 +9593,13 @@
         <v>503</v>
       </c>
       <c r="I7" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="K7" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="M7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -9604,19 +9607,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="G8" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I8" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="K8" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M8" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -9624,19 +9627,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G9" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="I9" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="K9" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="M9" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -9644,19 +9647,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="G10" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="I10" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="K10" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="M10" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="11" spans="2:13">
@@ -9664,19 +9667,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="G11" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="I11" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="K11" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M11" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -9684,19 +9687,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="G12" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I12" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="K12" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="M12" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -9704,16 +9707,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="G13" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="I13" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="M13" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -9721,16 +9724,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D14" s="46">
         <v>1</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="G14" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -9738,7 +9741,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D15" s="46">
         <v>2</v>
@@ -9752,13 +9755,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D16" s="46">
         <v>3</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -9766,7 +9769,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D17" s="46">
         <v>4</v>
@@ -9780,13 +9783,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D18" s="46">
         <v>5</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -9794,13 +9797,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D19" s="46">
         <v>6</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -9808,13 +9811,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D20" s="46">
         <v>7</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -9822,7 +9825,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -9830,7 +9833,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
   </sheetData>
@@ -9917,7 +9920,7 @@
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="18" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -9925,7 +9928,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="20"/>
       <c r="I2" s="27" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
@@ -9933,7 +9936,7 @@
       <c r="M2" s="19"/>
       <c r="N2" s="36"/>
       <c r="O2" s="37" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
@@ -9947,7 +9950,7 @@
       <c r="Y2" s="19"/>
       <c r="Z2" s="36"/>
       <c r="AA2" s="18" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="AB2" s="19"/>
       <c r="AC2" s="19"/>
@@ -9965,7 +9968,7 @@
       <c r="A3" s="16"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -9991,7 +9994,7 @@
       <c r="Y3" s="38"/>
       <c r="Z3" s="39"/>
       <c r="AA3" s="22" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="AB3" s="23"/>
       <c r="AC3" s="23"/>
@@ -10011,58 +10014,58 @@
         <v>738</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>1219</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="J4" s="27" t="s">
         <v>1220</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="K4" s="27" t="s">
         <v>1221</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="L4" s="27" t="s">
         <v>1222</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="M4" s="27" t="s">
         <v>1223</v>
       </c>
-      <c r="I4" s="27" t="s">
-        <v>1218</v>
-      </c>
-      <c r="J4" s="27" t="s">
+      <c r="N4" s="27" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O4" s="27" t="s">
         <v>1219</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="P4" s="27" t="s">
         <v>1220</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="Q4" s="27" t="s">
         <v>1221</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="R4" s="27" t="s">
         <v>1222</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="S4" s="27" t="s">
         <v>1223</v>
       </c>
-      <c r="O4" s="27" t="s">
-        <v>1218</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>1219</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>1220</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>1221</v>
-      </c>
-      <c r="S4" s="27" t="s">
-        <v>1222</v>
-      </c>
       <c r="T4" s="37" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="U4" s="27"/>
       <c r="V4" s="27"/>
@@ -10071,22 +10074,22 @@
       <c r="Y4" s="27"/>
       <c r="Z4" s="27"/>
       <c r="AA4" s="27" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="AC4" s="27" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="AD4" s="27" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="AE4" s="27" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="AF4" s="27" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="AG4" s="27"/>
       <c r="AH4" s="27"/>
@@ -10097,64 +10100,64 @@
     </row>
     <row r="5" s="15" customFormat="1" ht="16.35" spans="1:38">
       <c r="A5" s="28" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B5" t="s">
         <v>576</v>
       </c>
       <c r="C5" s="129" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D5" s="129" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="E5" s="129" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="F5" s="129" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G5" s="129" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H5" s="129" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="I5" s="129" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="J5" s="129" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="K5" s="129" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="L5" s="129" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="M5" s="129" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="N5" s="129" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="O5" s="129" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="P5" s="129" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="Q5" s="129" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="R5" s="129" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="S5" s="129" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="T5" s="130" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
@@ -10189,64 +10192,64 @@
     </row>
     <row r="6" s="15" customFormat="1" ht="16.35" spans="1:38">
       <c r="A6" s="30" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B6" t="s">
         <v>533</v>
       </c>
       <c r="C6" s="131" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D6" s="131" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E6" s="131" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F6" s="131" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="G6" s="131" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H6" s="131" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="I6" s="131" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="J6" s="131" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="K6" s="131" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="L6" s="131" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="M6" s="131" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="N6" s="131" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="O6" s="131" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="P6" s="131" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="Q6" s="131" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="R6" s="131" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="S6" s="131" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="T6" s="132" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="U6" s="31"/>
       <c r="V6" s="31"/>
@@ -10281,64 +10284,64 @@
     </row>
     <row r="7" s="15" customFormat="1" ht="16.35" spans="1:38">
       <c r="A7" s="30" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B7" t="s">
         <v>497</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D7" s="131" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F7" s="131" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="G7" s="131" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H7" s="131" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="I7" s="131" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="J7" s="131" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="K7" s="131" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="L7" s="131" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="M7" s="131" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="N7" s="131" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="O7" s="131" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="P7" s="131" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="Q7" s="131" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="R7" s="131" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="S7" s="131" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="T7" s="132" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="U7" s="31"/>
       <c r="V7" s="31"/>
@@ -10373,64 +10376,64 @@
     </row>
     <row r="8" s="15" customFormat="1" ht="16.35" spans="1:38">
       <c r="A8" s="32" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B8" t="s">
         <v>571</v>
       </c>
       <c r="C8" s="133" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D8" s="133" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="E8" s="133" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G8" s="133" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H8" s="133" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="I8" s="133" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J8" s="133" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K8" s="133" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L8" s="133" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M8" s="133" t="s">
+        <v>1255</v>
+      </c>
+      <c r="N8" s="133" t="s">
+        <v>1255</v>
+      </c>
+      <c r="O8" s="133" t="s">
         <v>1239</v>
       </c>
-      <c r="J8" s="133" t="s">
-        <v>1251</v>
-      </c>
-      <c r="K8" s="133" t="s">
-        <v>1252</v>
-      </c>
-      <c r="L8" s="133" t="s">
-        <v>1253</v>
-      </c>
-      <c r="M8" s="133" t="s">
+      <c r="P8" s="133" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Q8" s="133" t="s">
+        <v>1256</v>
+      </c>
+      <c r="R8" s="133" t="s">
+        <v>1257</v>
+      </c>
+      <c r="S8" s="133" t="s">
         <v>1254</v>
       </c>
-      <c r="N8" s="133" t="s">
+      <c r="T8" s="134" t="s">
         <v>1254</v>
-      </c>
-      <c r="O8" s="133" t="s">
-        <v>1238</v>
-      </c>
-      <c r="P8" s="133" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Q8" s="133" t="s">
-        <v>1255</v>
-      </c>
-      <c r="R8" s="133" t="s">
-        <v>1256</v>
-      </c>
-      <c r="S8" s="133" t="s">
-        <v>1253</v>
-      </c>
-      <c r="T8" s="134" t="s">
-        <v>1253</v>
       </c>
       <c r="U8" s="33"/>
       <c r="V8" s="33"/>
@@ -10465,64 +10468,64 @@
     </row>
     <row r="9" s="15" customFormat="1" ht="16.35" spans="1:38">
       <c r="A9" s="34" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B9" t="s">
         <v>561</v>
       </c>
       <c r="C9" s="135" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D9" s="135" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="E9" s="135" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="F9" s="135" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G9" s="135" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H9" s="135" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="I9" s="135" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J9" s="135" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K9" s="135" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L9" s="135" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M9" s="135" t="s">
+        <v>1255</v>
+      </c>
+      <c r="N9" s="135" t="s">
+        <v>1255</v>
+      </c>
+      <c r="O9" s="135" t="s">
         <v>1238</v>
       </c>
-      <c r="J9" s="135" t="s">
-        <v>1251</v>
-      </c>
-      <c r="K9" s="135" t="s">
-        <v>1252</v>
-      </c>
-      <c r="L9" s="135" t="s">
-        <v>1253</v>
-      </c>
-      <c r="M9" s="135" t="s">
+      <c r="P9" s="135" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Q9" s="135" t="s">
+        <v>1256</v>
+      </c>
+      <c r="R9" s="135" t="s">
+        <v>1257</v>
+      </c>
+      <c r="S9" s="135" t="s">
         <v>1254</v>
       </c>
-      <c r="N9" s="135" t="s">
+      <c r="T9" s="136" t="s">
         <v>1254</v>
-      </c>
-      <c r="O9" s="135" t="s">
-        <v>1237</v>
-      </c>
-      <c r="P9" s="135" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Q9" s="135" t="s">
-        <v>1255</v>
-      </c>
-      <c r="R9" s="135" t="s">
-        <v>1256</v>
-      </c>
-      <c r="S9" s="135" t="s">
-        <v>1253</v>
-      </c>
-      <c r="T9" s="136" t="s">
-        <v>1253</v>
       </c>
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
@@ -10560,7 +10563,7 @@
         <v>576</v>
       </c>
       <c r="C11" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -10568,7 +10571,7 @@
         <v>533</v>
       </c>
       <c r="C12" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:3">
@@ -10576,7 +10579,7 @@
         <v>497</v>
       </c>
       <c r="C13" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -10584,7 +10587,7 @@
         <v>571</v>
       </c>
       <c r="C14" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -10592,7 +10595,7 @@
         <v>561</v>
       </c>
       <c r="C15" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
   </sheetData>
@@ -10630,81 +10633,81 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="43.2" spans="1:13">
       <c r="A1" s="5" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="2" ht="100.8" spans="2:13">
       <c r="B2" s="127" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="3" spans="8:8">
@@ -10733,176 +10736,176 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="43.2" spans="1:23">
       <c r="A1" s="5" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" ht="100.8" spans="2:23">
       <c r="B2" s="127" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" ht="43.2" spans="8:18">
       <c r="H3" s="8"/>
       <c r="N3" s="7" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="14:18">
       <c r="N4" s="7" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="18:18">
       <c r="R5" s="7" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="18:18">
       <c r="R6" s="7" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="18:18">
       <c r="R7" s="7" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
   </sheetData>
@@ -10993,147 +10996,147 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="28.8" spans="1:25">
       <c r="A1" s="5" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="2" ht="57.6" spans="3:25">
       <c r="C2" s="127" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D2" s="127" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>557</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>796</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="7:25">
@@ -11141,112 +11144,112 @@
         <v>795</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="7:23">
       <c r="G4" s="7" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>557</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="7:23">
       <c r="G5" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>561</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>175</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="13:23">
       <c r="M6" s="7" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
   </sheetData>
@@ -11269,69 +11272,69 @@
   <sheetData>
     <row r="1" ht="28.8" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="2" ht="100.8" spans="2:11">
       <c r="B2" s="127" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H2" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
   </sheetData>
@@ -11366,31 +11369,31 @@
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -11398,13 +11401,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="E2" s="4">
         <v>43834</v>
@@ -11427,10 +11430,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D3" s="4">
         <v>44047</v>
